--- a/raw/training_validation_2_alldata.xlsx
+++ b/raw/training_validation_2_alldata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5204897_ad_unsw_edu_au1/Documents/Desktop/WRL/R/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2146" documentId="8_{0E982C34-0F34-499A-9533-E44D6D9B9A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B7FBF4-175E-4294-82FF-9F05A276C54D}"/>
+  <xr:revisionPtr revIDLastSave="2155" documentId="8_{0E982C34-0F34-499A-9533-E44D6D9B9A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD62348-4EEA-4588-9E30-84BE795D8F93}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{18870795-2872-4EB1-9916-EEEDE2D09B51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="7" xr2:uid="{18870795-2872-4EB1-9916-EEEDE2D09B51}"/>
   </bookViews>
   <sheets>
     <sheet name="0mos" sheetId="1" r:id="rId1"/>
     <sheet name="9mos" sheetId="2" r:id="rId2"/>
-    <sheet name="21mos" sheetId="3" r:id="rId3"/>
+    <sheet name="18mos" sheetId="3" r:id="rId3"/>
     <sheet name="26mos" sheetId="4" r:id="rId4"/>
     <sheet name="34mos" sheetId="5" r:id="rId5"/>
     <sheet name="42mos" sheetId="6" r:id="rId6"/>
@@ -776,9 +776,6 @@
     <t>sarc_clump</t>
   </si>
   <si>
-    <t>21mos</t>
-  </si>
-  <si>
     <t>26mos</t>
   </si>
   <si>
@@ -795,6 +792,9 @@
   </si>
   <si>
     <t>Producers</t>
+  </si>
+  <si>
+    <t>18mos</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B909E0-4A0E-4849-AEE5-CE255B2B44F0}">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -12499,8 +12499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D89CA01-BD8C-4745-BE15-7BAAE8E321D1}">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K216" sqref="K216"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12524,10 +12524,10 @@
         <v>232</v>
       </c>
       <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
         <v>242</v>
-      </c>
-      <c r="F1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -13732,10 +13732,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B62" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -13752,10 +13752,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B63" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -13772,10 +13772,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B64" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -13792,10 +13792,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B65" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -13812,10 +13812,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B66" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -13832,10 +13832,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B67" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -13852,10 +13852,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B68" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -13872,10 +13872,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B69" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -13892,10 +13892,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B70" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -13912,10 +13912,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B71" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -13932,10 +13932,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B72" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -13952,10 +13952,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B73" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -13972,10 +13972,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B74" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -13992,10 +13992,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B75" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -14012,10 +14012,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B76" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -14032,10 +14032,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B77" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -14052,10 +14052,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B78" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C78">
         <v>0.1</v>
@@ -14072,10 +14072,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B79" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C79">
         <v>0.1</v>
@@ -14092,10 +14092,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B80" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C80">
         <v>0.1</v>
@@ -14112,10 +14112,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B81" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C81">
         <v>0.1</v>
@@ -14132,10 +14132,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B82" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C82">
         <v>0.1</v>
@@ -14152,10 +14152,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B83" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C83">
         <v>0.1</v>
@@ -14172,10 +14172,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B84" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C84">
         <v>0.1</v>
@@ -14192,10 +14192,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B85" s="4">
-        <v>43413</v>
+        <v>43334</v>
       </c>
       <c r="C85">
         <v>0.1</v>
@@ -14212,10 +14212,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B86" s="4">
-        <v>43414</v>
+        <v>43334</v>
       </c>
       <c r="C86">
         <v>0.5</v>
@@ -14232,10 +14232,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B87" s="4">
-        <v>43415</v>
+        <v>43334</v>
       </c>
       <c r="C87">
         <v>0.5</v>
@@ -14252,10 +14252,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B88" s="4">
-        <v>43416</v>
+        <v>43334</v>
       </c>
       <c r="C88">
         <v>0.5</v>
@@ -14272,10 +14272,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B89" s="4">
-        <v>43417</v>
+        <v>43334</v>
       </c>
       <c r="C89">
         <v>0.5</v>
@@ -14292,10 +14292,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B90" s="4">
-        <v>43418</v>
+        <v>43334</v>
       </c>
       <c r="C90">
         <v>0.5</v>
@@ -14312,10 +14312,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B91" s="4">
-        <v>43419</v>
+        <v>43334</v>
       </c>
       <c r="C91">
         <v>0.5</v>
@@ -14332,10 +14332,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B92" s="4">
-        <v>43420</v>
+        <v>43334</v>
       </c>
       <c r="C92">
         <v>0.5</v>
@@ -14352,10 +14352,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B93" s="4">
-        <v>43421</v>
+        <v>43334</v>
       </c>
       <c r="C93">
         <v>0.5</v>
@@ -14372,7 +14372,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B94" s="4">
         <v>43585</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B95" s="4">
         <v>43585</v>
@@ -14412,7 +14412,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B96" s="4">
         <v>43585</v>
@@ -14432,7 +14432,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B97" s="4">
         <v>43585</v>
@@ -14452,7 +14452,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B98" s="4">
         <v>43585</v>
@@ -14472,7 +14472,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B99" s="4">
         <v>43585</v>
@@ -14492,7 +14492,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B100" s="4">
         <v>43585</v>
@@ -14512,7 +14512,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B101" s="4">
         <v>43585</v>
@@ -14532,7 +14532,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B102" s="4">
         <v>43585</v>
@@ -14552,7 +14552,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B103" s="4">
         <v>43585</v>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" s="4">
         <v>43585</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B105" s="4">
         <v>43585</v>
@@ -14612,7 +14612,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B106" s="4">
         <v>43585</v>
@@ -14632,7 +14632,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B107" s="4">
         <v>43585</v>
@@ -14652,7 +14652,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B108" s="4">
         <v>43585</v>
@@ -14672,7 +14672,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B109" s="4">
         <v>43585</v>
@@ -14692,7 +14692,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B110" s="4">
         <v>43585</v>
@@ -14712,7 +14712,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B111" s="4">
         <v>43585</v>
@@ -14732,7 +14732,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B112" s="4">
         <v>43585</v>
@@ -14752,7 +14752,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B113" s="4">
         <v>43585</v>
@@ -14772,7 +14772,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B114" s="4">
         <v>43585</v>
@@ -14792,7 +14792,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B115" s="4">
         <v>43585</v>
@@ -14812,7 +14812,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B116" s="4">
         <v>43585</v>
@@ -14832,7 +14832,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" s="4">
         <v>43585</v>
@@ -14852,7 +14852,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B118" s="4">
         <v>43585</v>
@@ -14872,7 +14872,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B119" s="4">
         <v>43585</v>
@@ -14892,7 +14892,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B120" s="4">
         <v>43585</v>
@@ -14912,7 +14912,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B121" s="4">
         <v>43585</v>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B122" s="4">
         <v>43585</v>
@@ -14952,7 +14952,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B123" s="4">
         <v>43585</v>
@@ -14972,7 +14972,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B124" s="4">
         <v>43585</v>
@@ -14992,7 +14992,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B125" s="4">
         <v>43585</v>
@@ -15012,7 +15012,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B126" s="4">
         <v>43817</v>
@@ -15032,7 +15032,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B127" s="4">
         <v>43817</v>
@@ -15052,7 +15052,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B128" s="4">
         <v>43817</v>
@@ -15072,7 +15072,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B129" s="4">
         <v>43817</v>
@@ -15092,7 +15092,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B130" s="4">
         <v>43817</v>
@@ -15112,7 +15112,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B131" s="4">
         <v>43817</v>
@@ -15132,7 +15132,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B132" s="4">
         <v>43817</v>
@@ -15152,7 +15152,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B133" s="4">
         <v>43817</v>
@@ -15172,7 +15172,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B134" s="4">
         <v>43817</v>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B135" s="4">
         <v>43817</v>
@@ -15212,7 +15212,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B136" s="4">
         <v>43817</v>
@@ -15232,7 +15232,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B137" s="4">
         <v>43817</v>
@@ -15252,7 +15252,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B138" s="4">
         <v>43817</v>
@@ -15272,7 +15272,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B139" s="4">
         <v>43817</v>
@@ -15292,7 +15292,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B140" s="4">
         <v>43817</v>
@@ -15312,7 +15312,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B141" s="4">
         <v>43817</v>
@@ -15332,7 +15332,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B142" s="4">
         <v>43817</v>
@@ -15352,7 +15352,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B143" s="4">
         <v>43817</v>
@@ -15372,7 +15372,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B144" s="4">
         <v>43817</v>
@@ -15392,7 +15392,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B145" s="4">
         <v>43817</v>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B146" s="4">
         <v>43817</v>
@@ -15432,7 +15432,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B147" s="4">
         <v>43817</v>
@@ -15452,7 +15452,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B148" s="4">
         <v>43817</v>
@@ -15472,7 +15472,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B149" s="4">
         <v>43817</v>
@@ -15492,7 +15492,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B150" s="4">
         <v>43817</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B151" s="4">
         <v>43817</v>
@@ -15532,7 +15532,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B152" s="4">
         <v>43817</v>
@@ -15552,7 +15552,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B153" s="4">
         <v>43817</v>
@@ -15572,7 +15572,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B154" s="4">
         <v>43817</v>
@@ -15592,7 +15592,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B155" s="4">
         <v>43817</v>
@@ -15612,7 +15612,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B156" s="4">
         <v>43817</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B157" s="4">
         <v>43817</v>
@@ -15652,7 +15652,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B158" s="4">
         <v>44056</v>
@@ -15672,7 +15672,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B159" s="4">
         <v>44056</v>
@@ -15692,7 +15692,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B160" s="4">
         <v>44056</v>
@@ -15712,7 +15712,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B161" s="4">
         <v>44056</v>
@@ -15732,7 +15732,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B162" s="4">
         <v>44056</v>
@@ -15752,7 +15752,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B163" s="4">
         <v>44056</v>
@@ -15772,7 +15772,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B164" s="4">
         <v>44056</v>
@@ -15792,7 +15792,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B165" s="4">
         <v>44056</v>
@@ -15812,7 +15812,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B166" s="4">
         <v>44056</v>
@@ -15832,7 +15832,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B167" s="4">
         <v>44056</v>
@@ -15852,7 +15852,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B168" s="4">
         <v>44056</v>
@@ -15872,7 +15872,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B169" s="4">
         <v>44056</v>
@@ -15892,7 +15892,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B170" s="4">
         <v>44056</v>
@@ -15912,7 +15912,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B171" s="4">
         <v>44056</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B172" s="4">
         <v>44056</v>
@@ -15952,7 +15952,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B173" s="4">
         <v>44056</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B174" s="4">
         <v>44056</v>
@@ -15992,7 +15992,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B175" s="4">
         <v>44056</v>
@@ -16012,7 +16012,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B176" s="4">
         <v>44056</v>
@@ -16032,7 +16032,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B177" s="4">
         <v>44056</v>
@@ -16052,7 +16052,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B178" s="4">
         <v>44056</v>
@@ -16072,7 +16072,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B179" s="4">
         <v>44056</v>
@@ -16092,7 +16092,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B180" s="4">
         <v>44056</v>
@@ -16112,7 +16112,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B181" s="4">
         <v>44056</v>
@@ -16132,7 +16132,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B182" s="4">
         <v>44056</v>
@@ -16152,7 +16152,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B183" s="4">
         <v>44056</v>
@@ -16172,7 +16172,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B184" s="4">
         <v>44056</v>
@@ -16192,7 +16192,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B185" s="4">
         <v>44056</v>
@@ -16212,7 +16212,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B186" s="4">
         <v>44056</v>
@@ -16232,7 +16232,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B187" s="4">
         <v>44056</v>
@@ -16252,7 +16252,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B188" s="4">
         <v>44056</v>
@@ -16272,7 +16272,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B189" s="4">
         <v>44056</v>
@@ -16292,7 +16292,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B190" s="4">
         <v>44056</v>
@@ -16312,7 +16312,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B191" s="4">
         <v>44056</v>
@@ -16332,7 +16332,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B192" s="4">
         <v>44056</v>
@@ -16352,7 +16352,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B193" s="4">
         <v>44056</v>
@@ -16372,7 +16372,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B194" s="4">
         <v>44173</v>
@@ -16392,7 +16392,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B195" s="4">
         <v>44173</v>
@@ -16412,7 +16412,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B196" s="4">
         <v>44173</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B197" s="4">
         <v>44173</v>
@@ -16452,7 +16452,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B198" s="4">
         <v>44173</v>
@@ -16472,7 +16472,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B199" s="4">
         <v>44173</v>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B200" s="4">
         <v>44173</v>
@@ -16512,7 +16512,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B201" s="4">
         <v>44173</v>
@@ -16532,7 +16532,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B202" s="4">
         <v>44173</v>
@@ -16552,7 +16552,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B203" s="4">
         <v>44173</v>
@@ -16572,7 +16572,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B204" s="4">
         <v>44173</v>
@@ -16592,7 +16592,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B205" s="4">
         <v>44173</v>
@@ -16612,7 +16612,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B206" s="4">
         <v>44173</v>
@@ -16632,7 +16632,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B207" s="4">
         <v>44173</v>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B208" s="4">
         <v>44173</v>
@@ -16672,7 +16672,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B209" s="4">
         <v>44173</v>
@@ -16692,7 +16692,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B210" s="4">
         <v>44173</v>
@@ -16712,7 +16712,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B211" s="4">
         <v>44173</v>
@@ -16732,7 +16732,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B212" s="4">
         <v>44173</v>
@@ -16752,7 +16752,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B213" s="4">
         <v>44173</v>
@@ -16772,7 +16772,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B214" s="4">
         <v>44173</v>
@@ -16792,7 +16792,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B215" s="4">
         <v>44173</v>
@@ -16812,7 +16812,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B216" s="4">
         <v>44173</v>
@@ -16832,7 +16832,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B217" s="4">
         <v>44173</v>
@@ -16852,7 +16852,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B218" s="4">
         <v>44173</v>
@@ -16872,7 +16872,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B219" s="4">
         <v>44173</v>
@@ -16892,7 +16892,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B220" s="4">
         <v>44173</v>
@@ -16912,7 +16912,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B221" s="4">
         <v>44173</v>
@@ -16932,7 +16932,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B222" s="4">
         <v>44173</v>
@@ -16952,7 +16952,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B223" s="4">
         <v>44173</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B224" s="4">
         <v>44173</v>
@@ -16992,7 +16992,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B225" s="4">
         <v>44173</v>
@@ -17012,5 +17012,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/raw/training_validation_2_alldata.xlsx
+++ b/raw/training_validation_2_alldata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5204897_ad_unsw_edu_au1/Documents/Desktop/WRL/R/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2155" documentId="8_{0E982C34-0F34-499A-9533-E44D6D9B9A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD62348-4EEA-4588-9E30-84BE795D8F93}"/>
+  <xr:revisionPtr revIDLastSave="2452" documentId="8_{0E982C34-0F34-499A-9533-E44D6D9B9A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7962385E-26E6-454A-A660-16CC54BF1295}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="7" xr2:uid="{18870795-2872-4EB1-9916-EEEDE2D09B51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="7" xr2:uid="{18870795-2872-4EB1-9916-EEEDE2D09B51}"/>
   </bookViews>
   <sheets>
     <sheet name="0mos" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="277">
   <si>
     <t>[0,48,2,0,1,0,1,0]</t>
   </si>
@@ -795,6 +795,105 @@
   </si>
   <si>
     <t>18mos</t>
+  </si>
+  <si>
+    <t>[0,43,2,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,4,42,1,1,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,3,0,48,0,0,1,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,45,1,1,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,54,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,44,3,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,1,0,0,8,42,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0,0,59]</t>
+  </si>
+  <si>
+    <t>more mud version</t>
+  </si>
+  <si>
+    <t>original version</t>
+  </si>
+  <si>
+    <t>[0,36,4,1,1,0,3,0,0]</t>
+  </si>
+  <si>
+    <t>[0,10,35,1,0,0,0,0,2]</t>
+  </si>
+  <si>
+    <t>[0,2,1,47,0,0,2,0,0]</t>
+  </si>
+  <si>
+    <t>[0,2,0,0,38,0,0,0,7]</t>
+  </si>
+  <si>
+    <t>[0,1,1,0,0,0,43,2,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,4,47,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,2,0,2,0,55]</t>
+  </si>
+  <si>
+    <t>[0,33,3,1,3,0,1,1,3]</t>
+  </si>
+  <si>
+    <t>[0,14,29,1,0,0,1,0,3]</t>
+  </si>
+  <si>
+    <t>[0,3,0,45,0,0,3,1,0]</t>
+  </si>
+  <si>
+    <t>[0,3,0,0,30,0,2,1,11]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,1,51,0,2,0]</t>
+  </si>
+  <si>
+    <t>[0,3,2,2,0,0,39,0,1]</t>
+  </si>
+  <si>
+    <t>[0,1,0,0,0,1,1,47,1]</t>
+  </si>
+  <si>
+    <t>[0,0,1,0,7,0,0,0,51]</t>
+  </si>
+  <si>
+    <t>[0,28,6,1,4,1,4,1,0]</t>
+  </si>
+  <si>
+    <t>[0,10,36,1,0,0,1,0,0]</t>
+  </si>
+  <si>
+    <t>[0,2,2,41,0,1,5,1,0]</t>
+  </si>
+  <si>
+    <t>[0,7,0,0,26,0,1,1,12]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,2,47,0,5,0]</t>
+  </si>
+  <si>
+    <t>[0,6,5,1,0,0,33,1,1]</t>
+  </si>
+  <si>
+    <t>[0,0,0,4,1,1,0,45,0]</t>
+  </si>
+  <si>
+    <t>[0,4,3,0,5,0,0,1,46]</t>
   </si>
 </sst>
 </file>
@@ -2492,822 +2591,1556 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4949B98E-406E-4D7E-B3CB-C531D5409A29}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:L68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
+      <c r="D1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="U2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="V2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="W2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="X2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Y2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Z2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AA2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="R3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="S3">
         <v>43</v>
       </c>
-      <c r="F3">
+      <c r="T3">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <f>E3/SUM(E3:L3)</f>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>S3/SUM(S3:Z3)</f>
         <v>0.89583333333333337</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <f>E4/SUM(E4:L4)</f>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="P4" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="R4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="S4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="T4">
         <v>38</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <f>F4/SUM(E4:L4)</f>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>T4/SUM(S4:Z4)</f>
         <v>0.86363636363636365</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <f>F5/SUM(E5:L5)</f>
+        <v>0.875</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="R5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>42</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f>G5/SUM(E5:L5)</f>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>U5/SUM(S5:Z5)</f>
         <v>0.97674418604651159</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>G6/SUM(E6:L6)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="P6" s="2">
         <v>0.125</v>
       </c>
-      <c r="D6" t="s">
+      <c r="R6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>56</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <f>H6/SUM(E6:L6)</f>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <f>V6/SUM(S6:Z6)</f>
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>H7/SUM(E7:L7)</f>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="R7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>48</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>I7/SUM(E7:L7)</f>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>W7/SUM(S7:Z7)</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>I8/SUM(E8:L8)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" t="s">
+      <c r="R8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>53</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>J8/SUM(E8:L8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f>X8/SUM(S8:Z8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>44</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>J9/SUM(E9:L9)</f>
+        <v>0.93617021276595747</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="R9" t="s">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>6</v>
       </c>
-      <c r="K9">
+      <c r="Y9">
         <v>40</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>K9/SUM(E9:L9)</f>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>Y9/SUM(S9:Z9)</f>
         <v>0.85106382978723405</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>42</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>K10/SUM(E10:L10)</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="P10" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D10" t="s">
+      <c r="R10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>50</v>
       </c>
-      <c r="M10" s="3">
-        <f>L10/SUM(E10:L10)</f>
+      <c r="AA10" s="3">
+        <f>Z10/SUM(S10:Z10)</f>
         <v>0.96153846153846156</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>59</v>
+      </c>
+      <c r="M11" s="3">
+        <f>L11/SUM(E11:L11)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="R11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3">
-        <f>E3/SUM(E3:E10)</f>
+      <c r="S11" s="3">
+        <f>S3/SUM(S3:S10)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="F11" s="3">
-        <f>F4/SUM(F3:F10)</f>
+      <c r="T11" s="3">
+        <f>T4/SUM(T3:T10)</f>
         <v>0.86363636363636365</v>
       </c>
-      <c r="G11">
-        <f>G5/SUM(G3:G10)</f>
+      <c r="U11">
+        <f>U5/SUM(U3:U10)</f>
         <v>0.97674418604651159</v>
       </c>
-      <c r="H11">
-        <f>H6/SUM(H3:H10)</f>
+      <c r="V11">
+        <f>V6/SUM(V3:V10)</f>
         <v>0.98245614035087714</v>
       </c>
-      <c r="I11">
-        <f>I7/SUM(I3:I10)</f>
+      <c r="W11">
+        <f>W7/SUM(W3:W10)</f>
         <v>0.96</v>
       </c>
-      <c r="J11">
-        <f>J8/SUM(J3:J10)</f>
+      <c r="X11">
+        <f>X8/SUM(X3:X10)</f>
         <v>0.89830508474576276</v>
       </c>
-      <c r="K11">
-        <f>K9/SUM(K3:K10)</f>
+      <c r="Y11">
+        <f>Y9/SUM(Y3:Y10)</f>
         <v>0.97560975609756095</v>
       </c>
-      <c r="L11" s="3">
-        <f>L10/SUM(L3:L10)</f>
+      <c r="Z11" s="3">
+        <f>Z10/SUM(Z3:Z10)</f>
         <v>0.98039215686274506</v>
       </c>
-      <c r="N11">
-        <f>AVERAGE(E11:L11)</f>
+      <c r="AB11">
+        <f>AVERAGE(S11:Z11)</f>
         <v>0.93300834558286228</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <f>E4/SUM(E4:E11)</f>
+        <v>0.86</v>
+      </c>
+      <c r="F12" s="3">
+        <f>F5/SUM(F4:F11)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="G12">
+        <f>G6/SUM(G4:G11)</f>
+        <v>0.96</v>
+      </c>
+      <c r="H12">
+        <f>H7/SUM(H4:H11)</f>
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="I12">
+        <f>I8/SUM(I4:I11)</f>
+        <v>0.98181818181818181</v>
+      </c>
+      <c r="J12">
+        <f>J9/SUM(J4:J11)</f>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="K12">
+        <f>K10/SUM(K4:K11)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="L12" s="3">
+        <f>L11/SUM(L4:L11)</f>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(E12:L12)</f>
+        <v>0.93534658175962526</v>
+      </c>
+      <c r="P12" s="2">
         <v>0.25</v>
       </c>
-      <c r="M12">
-        <f>AVERAGE(M3:M10)</f>
+      <c r="AA12">
+        <f>AVERAGE(AA3:AA10)</f>
         <v>0.9302686884594048</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="M13">
+        <f>AVERAGE(M4:M11)</f>
+        <v>0.93384736395922263</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P14" s="2">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P16" s="2">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F20" t="s">
         <v>8</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H20" t="s">
         <v>10</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I20" t="s">
         <v>11</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J20" t="s">
         <v>12</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K20" t="s">
         <v>13</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L20" t="s">
         <v>15</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <f>E21/SUM(E21:L21)</f>
+        <v>0.8</v>
+      </c>
+      <c r="T21" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3">
+        <f>F22/SUM(E22:L22)</f>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22" t="s">
+      <c r="S22" t="s">
         <v>7</v>
       </c>
-      <c r="E22">
+      <c r="T22">
         <v>37</v>
       </c>
-      <c r="F22">
+      <c r="U22">
         <v>11</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <f>E22/SUM(E22:L22)</f>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>T22/SUM(T22:AA22)</f>
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>47</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>G23/SUM(E23:L23)</f>
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="P23" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="S23" t="s">
         <v>8</v>
       </c>
-      <c r="E23">
+      <c r="T23">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="U23">
         <v>31</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <f>F23/SUM(E23:L23)</f>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <f>U23/SUM(T23:AA23)</f>
         <v>0.70454545454545459</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>38</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <f>H24/SUM(E24:L24)</f>
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
+      <c r="S24" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>38</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>4</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f>G24/SUM(E24:L24)</f>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f>V24/SUM(T24:AA24)</f>
         <v>0.88372093023255816</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>54</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>I25/SUM(E25:L25)</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
         <v>0.125</v>
       </c>
-      <c r="D25" t="s">
+      <c r="S25" t="s">
         <v>10</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>51</v>
       </c>
-      <c r="I25">
+      <c r="X25">
         <v>4</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
         <v>4</v>
       </c>
-      <c r="M25">
-        <f>H25/SUM(E25:L25)</f>
+      <c r="AB25">
+        <f>W25/SUM(T25:AA25)</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>J26/SUM(E26:L26)</f>
+        <v>0.91489361702127658</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D26" t="s">
+      <c r="S26" t="s">
         <v>11</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
         <v>50</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <f>I26/SUM(E26:L26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f>X26/SUM(T26:AA26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>47</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>K27/SUM(E27:L27)</f>
+        <v>0.92156862745098034</v>
+      </c>
+      <c r="P27" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D27" t="s">
+      <c r="S27" t="s">
         <v>12</v>
       </c>
-      <c r="E27">
+      <c r="T27">
         <v>4</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>6</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>40</v>
       </c>
-      <c r="K27">
+      <c r="Z27">
         <v>3</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>J27/SUM(E27:L27)</f>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f>Y27/SUM(T27:AA27)</f>
         <v>0.75471698113207553</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>55</v>
+      </c>
+      <c r="M28" s="3">
+        <f>L28/SUM(E28:L28)</f>
+        <v>0.93220338983050843</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D28" t="s">
+      <c r="S28" t="s">
         <v>13</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
         <v>44</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f>K28/SUM(E28:L28)</f>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f>Z28/SUM(T28:AA28)</f>
         <v>0.93617021276595747</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3">
+        <f>E21/SUM(E21:E28)</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="F29" s="3">
+        <f>F22/SUM(F21:F28)</f>
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="G29">
+        <f>G23/SUM(G21:G28)</f>
+        <v>0.95918367346938771</v>
+      </c>
+      <c r="H29">
+        <f>H24/SUM(H21:H28)</f>
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="I29">
+        <f>I25/SUM(I21:I28)</f>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f>J26/SUM(J21:J28)</f>
+        <v>0.79629629629629628</v>
+      </c>
+      <c r="K29">
+        <f>K27/SUM(K21:K28)</f>
+        <v>0.95918367346938771</v>
+      </c>
+      <c r="L29" s="3">
+        <f>L28/SUM(L21:L28)</f>
+        <v>0.859375</v>
+      </c>
+      <c r="N29">
+        <f>AVERAGE(E29:L29)</f>
+        <v>0.88255110013178717</v>
+      </c>
+      <c r="P29" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D29" t="s">
+      <c r="S29" t="s">
         <v>15</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>4</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
         <v>47</v>
       </c>
-      <c r="M29" s="3">
-        <f>L29/SUM(E29:L29)</f>
+      <c r="AB29" s="3">
+        <f>AA29/SUM(T29:AA29)</f>
         <v>0.90384615384615385</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGE(M21:M28)</f>
+        <v>0.87627363663918245</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" t="s">
+      <c r="S30" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="3">
-        <f>E22/SUM(E22:E29)</f>
+      <c r="T30" s="3">
+        <f>T22/SUM(T22:T29)</f>
         <v>0.68518518518518523</v>
       </c>
-      <c r="F30" s="3">
-        <f>F23/SUM(F22:F29)</f>
+      <c r="U30" s="3">
+        <f>U23/SUM(U22:U29)</f>
         <v>0.73809523809523814</v>
       </c>
-      <c r="G30">
-        <f>G24/SUM(G22:G29)</f>
+      <c r="V30">
+        <f>V24/SUM(V22:V29)</f>
         <v>0.84444444444444444</v>
       </c>
-      <c r="H30">
-        <f>H25/SUM(H22:H29)</f>
+      <c r="W30">
+        <f>W25/SUM(W22:W29)</f>
         <v>0.92727272727272725</v>
       </c>
-      <c r="I30">
-        <f>I26/SUM(I22:I29)</f>
+      <c r="X30">
+        <f>X26/SUM(X22:X29)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="J30">
-        <f>J27/SUM(J22:J29)</f>
+      <c r="Y30">
+        <f>Y27/SUM(Y22:Y29)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="K30">
-        <f>K28/SUM(K22:K29)</f>
+      <c r="Z30">
+        <f>Z28/SUM(Z22:Z29)</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L30" s="3">
-        <f>L29/SUM(L22:L29)</f>
+      <c r="AA30" s="3">
+        <f>AA29/SUM(AA22:AA29)</f>
         <v>0.92156862745098034</v>
       </c>
-      <c r="N30">
-        <f>AVERAGE(E30:L30)</f>
+      <c r="AC30">
+        <f>AVERAGE(T30:AA30)</f>
         <v>0.84906151854681267</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P31" s="2">
         <v>0.25</v>
       </c>
-      <c r="M31">
-        <f>AVERAGE(M22:M29)</f>
+      <c r="AB31">
+        <f>AVERAGE(AB22:AB29)</f>
         <v>0.85047913323194169</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P33" s="2">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P35" s="2">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P36" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -3336,8 +4169,38 @@
       <c r="M40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T40" t="s">
+        <v>7</v>
+      </c>
+      <c r="U40" t="s">
+        <v>8</v>
+      </c>
+      <c r="V40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" t="s">
+        <v>10</v>
+      </c>
+      <c r="X40" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -3345,49 +4208,83 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M41" s="3">
         <f>E41/SUM(E41:L41)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="P41" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S41" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41">
+        <v>38</v>
+      </c>
+      <c r="U41">
+        <v>9</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <f>T41/SUM(T41:AA41)</f>
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F42">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3396,20 +4293,54 @@
         <v>0</v>
       </c>
       <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>3</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
       </c>
       <c r="M42" s="3">
         <f>F42/SUM(E42:L42)</f>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S42" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <v>9</v>
+      </c>
+      <c r="U42">
+        <v>27</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>3</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <f>U42/SUM(T42:AA42)</f>
         <v>0.61363636363636365</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>0.125</v>
       </c>
@@ -3417,13 +4348,13 @@
         <v>9</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3432,22 +4363,56 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
         <f>G43/SUM(E43:L43)</f>
+        <v>0.86538461538461542</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="S43" t="s">
+        <v>9</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>39</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f>V43/SUM(T43:AA43)</f>
         <v>0.90697674418604646</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -3462,26 +4427,60 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M44">
         <f>H44/SUM(E44:L44)</f>
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S44" t="s">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>39</v>
+      </c>
+      <c r="X44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>9</v>
+      </c>
+      <c r="AB44">
+        <f>W44/SUM(T44:AA44)</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>0.16666666666666666</v>
       </c>
@@ -3489,7 +4488,7 @@
         <v>11</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3501,25 +4500,59 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
         <f>I45/SUM(E45:L45)</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S45" t="s">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>47</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f>X45/SUM(T45:AA45)</f>
         <v>0.94</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -3528,10 +4561,10 @@
         <v>3</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3540,20 +4573,54 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <f>J46/SUM(E46:L46)</f>
+        <v>0.82978723404255317</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S46" t="s">
+        <v>12</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>8</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>37</v>
+      </c>
+      <c r="Z46">
+        <v>2</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f>Y46/SUM(T46:AA46)</f>
         <v>0.69811320754716977</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>0.20833333333333334</v>
       </c>
@@ -3561,43 +4628,77 @@
         <v>13</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <f>K47/SUM(E47:L47)</f>
+        <v>0.92156862745098034</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="S47" t="s">
+        <v>13</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>45</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f>Z47/SUM(T47:AA47)</f>
         <v>0.95744680851063835</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3606,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3618,14 +4719,48 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M48" s="3">
         <f>L48/SUM(E48:L48)</f>
+        <v>0.86440677966101698</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S48" t="s">
+        <v>15</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>6</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>43</v>
+      </c>
+      <c r="AB48" s="3">
+        <f>AA48/SUM(T48:AA48)</f>
         <v>0.82692307692307687</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>0.25</v>
       </c>
@@ -3634,76 +4769,140 @@
       </c>
       <c r="E49" s="3">
         <f>E41/SUM(E41:E48)</f>
-        <v>0.65517241379310343</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="F49" s="3">
         <f>F42/SUM(F41:F48)</f>
-        <v>0.65853658536585369</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="G49">
         <f>G43/SUM(G41:G48)</f>
-        <v>0.72222222222222221</v>
+        <v>0.91836734693877553</v>
       </c>
       <c r="H49">
         <f>H44/SUM(H41:H48)</f>
-        <v>0.84782608695652173</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="I49">
         <f>I45/SUM(I41:I48)</f>
-        <v>0.8867924528301887</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="J49">
         <f>J46/SUM(J41:J48)</f>
-        <v>0.84090909090909094</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="K49">
         <f>K47/SUM(K41:K48)</f>
-        <v>0.91836734693877553</v>
+        <v>0.90384615384615385</v>
       </c>
       <c r="L49" s="3">
         <f>L48/SUM(L41:L48)</f>
-        <v>0.82692307692307687</v>
+        <v>0.72857142857142854</v>
       </c>
       <c r="N49">
         <f>AVERAGE(E49:L49)</f>
+        <v>0.81257093852922424</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S49" t="s">
+        <v>17</v>
+      </c>
+      <c r="T49" s="3">
+        <f>T41/SUM(T41:T48)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="U49" s="3">
+        <f>U42/SUM(U41:U48)</f>
+        <v>0.65853658536585369</v>
+      </c>
+      <c r="V49">
+        <f>V43/SUM(V41:V48)</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="W49">
+        <f>W44/SUM(W41:W48)</f>
+        <v>0.84782608695652173</v>
+      </c>
+      <c r="X49">
+        <f>X45/SUM(X41:X48)</f>
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="Y49">
+        <f>Y46/SUM(Y41:Y48)</f>
+        <v>0.84090909090909094</v>
+      </c>
+      <c r="Z49">
+        <f>Z47/SUM(Z41:Z48)</f>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="AA49" s="3">
+        <f>AA48/SUM(AA41:AA48)</f>
+        <v>0.82692307692307687</v>
+      </c>
+      <c r="AC49">
+        <f>AVERAGE(T49:AA49)</f>
         <v>0.79459365949235417</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="M50">
         <f>AVERAGE(M41:M48)</f>
+        <v>0.80017369666550453</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB50">
+        <f>AVERAGE(AB41:AB48)</f>
         <v>0.79809535843374513</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>0.29166666666666669</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P51" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P52" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P53" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P54" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
@@ -3731,55 +4930,116 @@
       <c r="M59" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T59" t="s">
+        <v>7</v>
+      </c>
+      <c r="U59" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" t="s">
+        <v>9</v>
+      </c>
+      <c r="W59" t="s">
+        <v>10</v>
+      </c>
+      <c r="X59" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>4</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <f>E60/SUM(E60:L60)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="S60" t="s">
+        <v>7</v>
+      </c>
+      <c r="T60">
+        <v>22</v>
+      </c>
+      <c r="U60">
+        <v>14</v>
+      </c>
+      <c r="V60">
+        <v>3</v>
+      </c>
+      <c r="W60">
+        <v>2</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>4</v>
+      </c>
+      <c r="Z60">
+        <v>2</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="3">
+        <f>T60/SUM(T60:AA60)</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3798,33 +5058,67 @@
       </c>
       <c r="M61" s="3">
         <f>F61/SUM(E61:L61)</f>
+        <v>0.75</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S61" t="s">
+        <v>8</v>
+      </c>
+      <c r="T61">
+        <v>6</v>
+      </c>
+      <c r="U61">
+        <v>32</v>
+      </c>
+      <c r="V61">
+        <v>5</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <f>U61/SUM(T61:AA61)</f>
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3834,48 +5128,116 @@
       </c>
       <c r="M62">
         <f>G62/SUM(E62:L62)</f>
+        <v>0.78846153846153844</v>
+      </c>
+      <c r="P62" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S62" t="s">
+        <v>9</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>40</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <f>V62/SUM(T62:AA62)</f>
         <v>0.93023255813953487</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M63">
         <f>H63/SUM(E63:L63)</f>
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S63" t="s">
+        <v>10</v>
+      </c>
+      <c r="T63">
+        <v>8</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>33</v>
+      </c>
+      <c r="X63">
+        <v>4</v>
+      </c>
+      <c r="Y63">
+        <v>2</v>
+      </c>
+      <c r="Z63">
+        <v>4</v>
+      </c>
+      <c r="AA63">
+        <v>8</v>
+      </c>
+      <c r="AB63">
+        <f>W63/SUM(T63:AA63)</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -3887,31 +5249,65 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
         <f>I64/SUM(E64:L64)</f>
+        <v>0.87037037037037035</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="S64" t="s">
+        <v>11</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>46</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>2</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <f>X64/SUM(T64:AA64)</f>
         <v>0.92</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -3920,10 +5316,10 @@
         <v>6</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3932,22 +5328,56 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <f>J65/SUM(E65:L65)</f>
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S65" t="s">
+        <v>12</v>
+      </c>
+      <c r="T65">
+        <v>6</v>
+      </c>
+      <c r="U65">
+        <v>8</v>
+      </c>
+      <c r="V65">
+        <v>10</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>29</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <f>Y65/SUM(T65:AA65)</f>
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -3959,46 +5389,80 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
         <f>K66/SUM(E66:L66)</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S66" t="s">
+        <v>13</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>3</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>40</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <f>Z66/SUM(T66:AA66)</f>
         <v>0.85106382978723405</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4007,96 +5471,191 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M67" s="3">
         <f>L67/SUM(E67:L67)</f>
+        <v>0.77966101694915257</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S67" t="s">
+        <v>15</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>6</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>6</v>
+      </c>
+      <c r="AA67">
+        <v>38</v>
+      </c>
+      <c r="AB67" s="3">
+        <f>AA67/SUM(T67:AA67)</f>
         <v>0.73076923076923073</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="3">
         <f>E60/SUM(E60:E67)</f>
-        <v>0.51162790697674421</v>
+        <v>0.49122807017543857</v>
       </c>
       <c r="F68" s="3">
         <f>F61/SUM(F60:F67)</f>
-        <v>0.5714285714285714</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="G68">
         <f>G62/SUM(G60:G67)</f>
-        <v>0.63492063492063489</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="H68">
         <f>H63/SUM(H60:H67)</f>
-        <v>0.7857142857142857</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="I68">
         <f>I64/SUM(I60:I67)</f>
-        <v>0.86792452830188682</v>
+        <v>0.94</v>
       </c>
       <c r="J68">
         <f>J65/SUM(J60:J67)</f>
-        <v>0.76315789473684215</v>
+        <v>0.75</v>
       </c>
       <c r="K68">
         <f>K66/SUM(K60:K67)</f>
-        <v>0.72727272727272729</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="L68" s="3">
         <f>L67/SUM(L60:L67)</f>
-        <v>0.80851063829787229</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="N68">
         <f>AVERAGE(E68:L68)</f>
+        <v>0.75121947382456966</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="S68" t="s">
+        <v>17</v>
+      </c>
+      <c r="T68" s="3">
+        <f>T60/SUM(T60:T67)</f>
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="U68" s="3">
+        <f>U61/SUM(U60:U67)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V68">
+        <f>V62/SUM(V60:V67)</f>
+        <v>0.63492063492063489</v>
+      </c>
+      <c r="W68">
+        <f>W63/SUM(W60:W67)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="X68">
+        <f>X64/SUM(X60:X67)</f>
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="Y68">
+        <f>Y65/SUM(Y60:Y67)</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="Z68">
+        <f>Z66/SUM(Z60:Z67)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="AA68" s="3">
+        <f>AA67/SUM(AA60:AA67)</f>
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="AC68">
+        <f>AVERAGE(T68:AA68)</f>
         <v>0.70881964845619572</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="M69">
         <f>AVERAGE(M60:M67)</f>
+        <v>0.74354840476449047</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB69">
+        <f>AVERAGE(AB60:AB67)</f>
         <v>0.71435518632785189</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P70" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P71" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P72" s="2">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P73" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P74" s="2">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P75" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -12499,8 +14058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D89CA01-BD8C-4745-BE15-7BAAE8E321D1}">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13104,10 +14663,10 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>0.65517241379310343</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="F30">
-        <v>0.79166666666666663</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -13124,10 +14683,10 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>0.65853658536585369</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="F31">
-        <v>0.61363636363636365</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -13144,10 +14703,10 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <v>0.72222222222222221</v>
+        <v>0.91836734693877553</v>
       </c>
       <c r="F32">
-        <v>0.90697674418604646</v>
+        <v>0.86538461538461542</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -13164,10 +14723,10 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <v>0.84782608695652173</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="F33">
-        <v>0.65</v>
+        <v>0.63829787234042556</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -13184,10 +14743,10 @@
         <v>11</v>
       </c>
       <c r="E34">
-        <v>0.8867924528301887</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="F34">
-        <v>0.94</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -13204,10 +14763,10 @@
         <v>234</v>
       </c>
       <c r="E35">
-        <v>0.84090909090909094</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="F35">
-        <v>0.69811320754716977</v>
+        <v>0.82978723404255317</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -13224,10 +14783,10 @@
         <v>13</v>
       </c>
       <c r="E36">
-        <v>0.91836734693877553</v>
+        <v>0.90384615384615385</v>
       </c>
       <c r="F36">
-        <v>0.95744680851063835</v>
+        <v>0.92156862745098034</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -13244,10 +14803,10 @@
         <v>236</v>
       </c>
       <c r="E37">
-        <v>0.82692307692307687</v>
+        <v>0.72857142857142854</v>
       </c>
       <c r="F37">
-        <v>0.82692307692307687</v>
+        <v>0.86440677966101698</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -13264,10 +14823,10 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>0.51162790697674421</v>
+        <v>0.49122807017543857</v>
       </c>
       <c r="F38">
-        <v>0.45833333333333331</v>
+        <v>0.62222222222222223</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -13284,10 +14843,10 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>0.5714285714285714</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="F39">
-        <v>0.72727272727272729</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -13304,10 +14863,10 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>0.63492063492063489</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="F40">
-        <v>0.93023255813953487</v>
+        <v>0.78846153846153844</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -13324,10 +14883,10 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <v>0.7857142857142857</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="F41">
-        <v>0.55000000000000004</v>
+        <v>0.55319148936170215</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -13344,10 +14903,10 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>0.86792452830188682</v>
+        <v>0.94</v>
       </c>
       <c r="F42">
-        <v>0.92</v>
+        <v>0.87037037037037035</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -13364,10 +14923,10 @@
         <v>234</v>
       </c>
       <c r="E43">
-        <v>0.76315789473684215</v>
+        <v>0.75</v>
       </c>
       <c r="F43">
-        <v>0.54716981132075471</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -13384,10 +14943,10 @@
         <v>13</v>
       </c>
       <c r="E44">
-        <v>0.72727272727272729</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="F44">
-        <v>0.85106382978723405</v>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -13404,10 +14963,10 @@
         <v>236</v>
       </c>
       <c r="E45">
-        <v>0.80851063829787229</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="F45">
-        <v>0.73076923076923073</v>
+        <v>0.77966101694915257</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -13424,10 +14983,10 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>0.82692307692307687</v>
+        <v>0.86</v>
       </c>
       <c r="F46">
-        <v>0.89583333333333337</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -13444,10 +15003,10 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>0.86363636363636365</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="F47">
-        <v>0.86363636363636365</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -13464,10 +15023,10 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>0.97674418604651159</v>
+        <v>0.96</v>
       </c>
       <c r="F48">
-        <v>0.97674418604651159</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -13484,10 +15043,10 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <v>0.98245614035087714</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="F49">
-        <v>0.93333333333333335</v>
+        <v>0.95744680851063835</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -13504,10 +15063,10 @@
         <v>11</v>
       </c>
       <c r="E50">
-        <v>0.96</v>
+        <v>0.98181818181818181</v>
       </c>
       <c r="F50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -13524,10 +15083,10 @@
         <v>234</v>
       </c>
       <c r="E51">
-        <v>0.89830508474576276</v>
+        <v>0.81481481481481477</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.93617021276595747</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -13544,10 +15103,10 @@
         <v>13</v>
       </c>
       <c r="E52">
-        <v>0.97560975609756095</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="F52">
-        <v>0.85106382978723405</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -13564,10 +15123,10 @@
         <v>236</v>
       </c>
       <c r="E53">
-        <v>0.98039215686274506</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0.96153846153846156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -13584,10 +15143,10 @@
         <v>7</v>
       </c>
       <c r="E54">
-        <v>0.68518518518518523</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="F54">
-        <v>0.77083333333333337</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -13604,10 +15163,10 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>0.73809523809523814</v>
+        <v>0.85365853658536583</v>
       </c>
       <c r="F55">
-        <v>0.70454545454545459</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -13624,10 +15183,10 @@
         <v>9</v>
       </c>
       <c r="E56">
-        <v>0.84444444444444444</v>
+        <v>0.95918367346938771</v>
       </c>
       <c r="F56">
-        <v>0.88372093023255816</v>
+        <v>0.90384615384615385</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -13644,10 +15203,10 @@
         <v>10</v>
       </c>
       <c r="E57">
-        <v>0.92727272727272725</v>
+        <v>0.92682926829268297</v>
       </c>
       <c r="F57">
-        <v>0.85</v>
+        <v>0.80851063829787229</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -13664,7 +15223,7 @@
         <v>11</v>
       </c>
       <c r="E58">
-        <v>0.92592592592592593</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -13684,10 +15243,10 @@
         <v>234</v>
       </c>
       <c r="E59">
-        <v>0.83333333333333337</v>
+        <v>0.79629629629629628</v>
       </c>
       <c r="F59">
-        <v>0.75471698113207553</v>
+        <v>0.91489361702127658</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -13704,10 +15263,10 @@
         <v>13</v>
       </c>
       <c r="E60">
-        <v>0.91666666666666663</v>
+        <v>0.95918367346938771</v>
       </c>
       <c r="F60">
-        <v>0.93617021276595747</v>
+        <v>0.92156862745098034</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -13724,10 +15283,10 @@
         <v>236</v>
       </c>
       <c r="E61">
-        <v>0.92156862745098034</v>
+        <v>0.859375</v>
       </c>
       <c r="F61">
-        <v>0.90384615384615385</v>
+        <v>0.93220338983050843</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
